--- a/backend/datas.xlsx
+++ b/backend/datas.xlsx
@@ -8,12 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Departments" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sectors" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Subsectors" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Skills" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Employees" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Forecasts" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sectors" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Subsectors" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Skills" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Employees" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Forecasts" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +484,11 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -492,7 +496,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Logistics</t>
+          <t>Inbound</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hub Asia DC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Outbound</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hub Asia DC</t>
         </is>
       </c>
     </row>
@@ -507,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +547,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cycle Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
         </is>
       </c>
     </row>
@@ -533,13 +572,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Picking</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Inbound</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hub Asia DC</t>
-        </is>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TO Line</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,23 +619,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Subsector</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>Priority</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cycle Time</t>
+          <t>Percentage of Subsector</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Efficiency</t>
-        </is>
+          <t>Percentage of Sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Picking</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,24 +680,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sesa Id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Subsector</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Priority</t>
+          <t>Home Location</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of Sector</t>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -640,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,70 +728,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sesa Id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Home Location</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
           <t>on</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -722,25 +773,40 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>120000</v>
       </c>
       <c r="C2" t="n">
+        <v>160000</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -748,24 +814,39 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
